--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -769,6 +769,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -769,7 +769,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -552,7 +552,7 @@
         <v>0.1497807142621282</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.001763668430335041</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,7 +569,7 @@
         <v>0.1505371825159774</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.0008375209380232507</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -586,7 +586,7 @@
         <v>0.3006961309050302</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-0.0008818342151676317</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -603,7 +603,7 @@
         <v>0.1494725234920415</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.0009372071227740086</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -654,7 +654,7 @@
         <v>0.04991589794082537</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.001102535832414597</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0001180730872407665</v>
+        <v>-0.0007324533886475804</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1497807142621282</v>
+        <v>0.1497630312786706</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001763668430335041</v>
+        <v>-0.004409171075837715</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1505371825159774</v>
+        <v>0.1505194102245225</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008375209380232507</v>
+        <v>-0.005025125628140503</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3006961309050302</v>
+        <v>0.3006606309761191</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008818342151676317</v>
+        <v>-0.003527336860670194</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1494725234920415</v>
+        <v>0.1494548768933235</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0009372071227740086</v>
+        <v>-0.004686035613870709</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07975336733437997</v>
+        <v>0.07974395171981162</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.00101626016260159</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1198441835496172</v>
+        <v>0.1199480939950916</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009852216748769127</v>
+        <v>-0.0009842519685039353</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04991589794082537</v>
+        <v>0.04991000491246115</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001102535832414597</v>
+        <v>-0.005512679162072875</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0007324533886475804</v>
+        <v>-0.003651829566612697</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1497630312786706</v>
+        <v>0.1496491938034782</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004409171075837715</v>
+        <v>-0.0008857395925598865</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1505194102245225</v>
+        <v>0.1503119448832102</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005025125628140503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3006606309761191</v>
+        <v>0.3006981982208146</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003527336860670194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1494548768933235</v>
+        <v>0.149299743234165</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004686035613870709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07974395171981162</v>
+        <v>0.07995489275984612</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00101626016260159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1199480939950916</v>
+        <v>0.1202692376052996</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009842519685039353</v>
+        <v>-0.0009852216748769127</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04991000491246115</v>
+        <v>0.04981678949318621</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.005512679162072875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.003651829566612697</v>
+        <v>-0.0002510420756560716</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1496491938034782</v>
+        <v>0.1495541879813057</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0008857395925598865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1503119448832102</v>
+        <v>0.1503496889812063</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3006981982208146</v>
+        <v>0.3007737050760396</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.0008849557522123686</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.149299743234165</v>
+        <v>0.149337233163151</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07995489275984612</v>
+        <v>0.07997496984227584</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.001017293997965352</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1202692376052996</v>
+        <v>0.1201809162122501</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009852216748769127</v>
+        <v>0.0009861932938857176</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04981678949318621</v>
+        <v>0.04982929874377132</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.001108647450110967</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0002510420756560716</v>
+        <v>0.0005212942158439038</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1495541879813057</v>
+        <v>0.1494762668679815</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.001773049645390268</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1503496889812063</v>
+        <v>0.150271353393875</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.001683501683501731</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3007737050760396</v>
+        <v>0.3008830279143636</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008849557522123686</v>
+        <v>0.0008841732979665284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.149337233163151</v>
+        <v>0.1492594250881923</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001883239171374784</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07997496984227584</v>
+        <v>0.08001461674219319</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001017293997965352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1201809162122501</v>
+        <v>0.1202367590988216</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009861932938857176</v>
+        <v>0.0009852216748769127</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04982929874377132</v>
+        <v>0.04985855089457273</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001108647450110967</v>
+        <v>0.001107419712070845</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0005212942158439038</v>
+        <v>0.001238809056758328</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -552,7 +552,7 @@
         <v>0.1494762668679815</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001773049645390268</v>
+        <v>0.002659574468085291</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,7 +569,7 @@
         <v>0.150271353393875</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001683501683501731</v>
+        <v>0.002525252525252597</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -603,7 +603,7 @@
         <v>0.1492594250881923</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001883239171374784</v>
+        <v>0.002824858757062287</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -637,7 +637,7 @@
         <v>0.1202367590988216</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009852216748769127</v>
+        <v>0.001970443349753603</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001238809056758328</v>
+        <v>0.001756819975143431</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1494762668679815</v>
+        <v>0.1496109705892964</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002659574468085291</v>
+        <v>0.0008841732979663064</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.150271353393875</v>
+        <v>0.1503866242829713</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002525252525252597</v>
+        <v>0.0008396305625524292</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3008830279143636</v>
+        <v>0.300620923809562</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008841732979665284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1492594250881923</v>
+        <v>0.1494185603707104</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002824858757062287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.08001461674219319</v>
+        <v>0.07987429199052379</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1202367590988216</v>
+        <v>0.1202623994355967</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001970443349753603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04985855089457273</v>
+        <v>0.04982622952133949</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001107419712070845</v>
+        <v>0.001106194690265738</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001756819975143431</v>
+        <v>0.0003136687417573114</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1496109705892964</v>
+        <v>0.1496962975652712</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008841732979663064</v>
+        <v>0.0008833922261484162</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1503866242829713</v>
+        <v>0.1504656971030304</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008396305625524292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.300620923809562</v>
+        <v>0.3005266579908855</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1494185603707104</v>
+        <v>0.1493717071352791</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.0009389671361503815</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07987429199052379</v>
+        <v>0.07984924577807032</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1202623994355967</v>
+        <v>0.1202246887087612</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.0009832841691247429</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04982622952133949</v>
+        <v>0.04986570571870233</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001106194690265738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0003136687417573114</v>
+        <v>0.0001542806364780436</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1496962975652712</v>
+        <v>0.1498054260343472</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008833922261484162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1504656971030304</v>
+        <v>0.1504424867404228</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008389261744965459</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3005266579908855</v>
+        <v>0.3004802996989988</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1493717071352791</v>
+        <v>0.149488899016863</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009389671361503815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07984924577807032</v>
+        <v>0.07983692848592905</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.00101626016260159</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1202246887087612</v>
+        <v>0.1200879464308073</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009832841691247429</v>
+        <v>-0.0009842519685039353</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04986570571870233</v>
+        <v>0.04985801359263173</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.001104972375690627</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0001542806364780436</v>
+        <v>-1.803001998346154E-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1498054260343472</v>
+        <v>0.1498081270778721</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1504424867404228</v>
+        <v>0.1505714116858673</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008389261744965459</v>
+        <v>-0.0008382229673092878</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3004802996989988</v>
+        <v>0.3004857174624894</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.149488899016863</v>
+        <v>0.1494915943532966</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.0009380863039399889</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07983692848592905</v>
+        <v>0.07975723142048068</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.00101626016260159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1200879464308073</v>
+        <v>0.1199719127291231</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009842519685039353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04985801359263173</v>
+        <v>0.04991400527087088</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001104972375690627</v>
+        <v>-0.001103752759381793</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>-1.803001998346154E-05</v>
+        <v>-0.0003215411537617063</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1498081270778721</v>
+        <v>0.1498563120493469</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1505714116858673</v>
+        <v>0.1504935891526619</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008382229673092878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3004857174624894</v>
+        <v>0.3005823670635954</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1494915943532966</v>
+        <v>0.1493993963903663</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0009380863039399889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07975723142048068</v>
+        <v>0.07978288490134229</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1199719127291231</v>
+        <v>0.1200105010440924</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04991400527087088</v>
+        <v>0.04987494939859478</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001103752759381793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0003215411537617063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1498563120493469</v>
+        <v>0.1497782709540959</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1504935891526619</v>
+        <v>0.150541403442709</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3005823670635954</v>
+        <v>0.3004258319345909</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1493993963903663</v>
+        <v>0.1494618013131487</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07978288490134229</v>
+        <v>0.07982245652548381</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1200105010440924</v>
+        <v>0.1200661782084614</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04987494939859478</v>
+        <v>0.04990405762151032</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -552,7 +552,7 @@
         <v>0.1497782709540959</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0008826125330978485</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,7 +569,7 @@
         <v>0.150541403442709</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008382229673091768</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -586,7 +586,7 @@
         <v>0.3004258319345909</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.0008833922261481941</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -603,7 +603,7 @@
         <v>0.1494618013131487</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.0009380863039398779</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -620,7 +620,7 @@
         <v>0.07982245652548381</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.00101626016260159</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -637,7 +637,7 @@
         <v>0.1200661782084614</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.0009842519685037132</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.0008632811091660031</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1497782709540959</v>
+        <v>0.1499575484292919</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008826125330978485</v>
+        <v>0.001760563380281743</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.150541403442709</v>
+        <v>0.1505755712961379</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008382229673091768</v>
+        <v>0.002510460251046176</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3004258319345909</v>
+        <v>0.3002561094760506</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008833922261481941</v>
+        <v>0.0008826125330980705</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1494618013131487</v>
+        <v>0.1495255324447005</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009380863039398779</v>
+        <v>0.001872659176029856</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07982245652548381</v>
+        <v>0.07978795215422972</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00101626016260159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1200661782084614</v>
+        <v>0.1200104403862943</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009842519685037132</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04990405762151032</v>
+        <v>0.0498868458132951</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.002205071664828973</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0008632811091660031</v>
+        <v>0.001415052356937396</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1499575484292919</v>
+        <v>0.1500092872022353</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001760563380281743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1505755712961379</v>
+        <v>0.1507402798943056</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002510460251046176</v>
+        <v>0.0008347245409014992</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3002561094760506</v>
+        <v>0.3000964670683797</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008826125330980705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1495255324447005</v>
+        <v>0.1495938596613866</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001872659176029856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07978795215422972</v>
+        <v>0.07967520756397684</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1200104403862943</v>
+        <v>0.1199586969156502</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009832841691248539</v>
+        <v>-0.0009823182711199419</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0498868458132951</v>
+        <v>0.04992620169406557</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002205071664828973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001415052356937396</v>
+        <v>7.988991170160276E-06</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1500092872022353</v>
+        <v>0.1501678086145737</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1507402798943056</v>
+        <v>0.1511173306685671</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008347245409014992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.3000964670683797</v>
+        <v>0.2998907153862385</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1495938596613866</v>
+        <v>0.1497935735073394</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-0.0009302325581393989</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07967520756397684</v>
+        <v>0.07949111987865227</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1199586969156502</v>
+        <v>0.1195601543122634</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009823182711199419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04992620169406557</v>
+        <v>0.04997929763236577</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>7.988991170160276E-06</v>
+        <v>-0.0001393428590765744</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1501678086145737</v>
+        <v>0.1501887363424967</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1511173306685671</v>
+        <v>0.1511383907240468</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2998907153862385</v>
+        <v>0.2999325088395502</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1497935735073394</v>
+        <v>0.1496750868027904</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0009302325581393989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07949111987865227</v>
+        <v>0.07950219794221641</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1195601543122634</v>
+        <v>0.119576816487752</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04997929763236577</v>
+        <v>0.04998626286114739</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0001393428590765744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -569,7 +569,7 @@
         <v>0.1511383907240468</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008298755186721962</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.0001254260503933402</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1501887363424967</v>
+        <v>0.1501699011249107</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1511383907240468</v>
+        <v>0.1512448467306724</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008298755186721962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2999325088395502</v>
+        <v>0.2998948942074366</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1496750868027904</v>
+        <v>0.1496563160021579</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07950219794221641</v>
+        <v>0.07949222754607833</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.119576816487752</v>
+        <v>0.1195618203208514</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04998626286114739</v>
+        <v>0.04997999406789277</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0001254260503933402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -603,7 +603,7 @@
         <v>0.1496563160021579</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.0009310986964616852</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -637,7 +637,7 @@
         <v>0.1195618203208514</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.0009823182711199419</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>2.189704011734683E-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1501699011249107</v>
+        <v>0.1501666129205633</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1512448467306724</v>
+        <v>0.1512415349887133</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.0008291873963515162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2998948942074366</v>
+        <v>0.2998883275406977</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1496563160021579</v>
+        <v>0.1497923807931332</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009310986964616852</v>
+        <v>-0.0009302325581393989</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07949222754607833</v>
+        <v>0.07949048693969687</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1195618203208514</v>
+        <v>0.1194417571392741</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009823182711199419</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04997999406789277</v>
+        <v>0.0499788996779215</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>2.189704011734683E-05</v>
+        <v>-0.0002279232903761308</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -552,7 +552,7 @@
         <v>0.1501666129205633</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-0.001749781277340268</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,7 +569,7 @@
         <v>0.1512415349887133</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008291873963515162</v>
+        <v>-0.001658374792703254</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -586,7 +586,7 @@
         <v>0.2998883275406977</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-0.0008795074758135568</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -603,7 +603,7 @@
         <v>0.1497923807931332</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0009302325581393989</v>
+        <v>-0.00186046511627902</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -654,7 +654,7 @@
         <v>0.0499788996779215</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.001095290251916903</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0002279232903761308</v>
+        <v>-0.001073926769938893</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1501666129205633</v>
+        <v>0.1500650130275147</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001749781277340268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1512415349887133</v>
+        <v>0.1511530471431632</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001658374792703254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2998883275406977</v>
+        <v>0.2999466942992791</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008795074758135568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1497923807931332</v>
+        <v>0.1496744366783076</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.00186046511627902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07949048693969687</v>
+        <v>0.07949523985074405</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1194417571392741</v>
+        <v>0.1196877381942819</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009832841691248539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0499788996779215</v>
+        <v>0.04997783080670955</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001095290251916903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.001073926769938893</v>
+        <v>8.070582725983044E-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1500650130275147</v>
+        <v>0.1500529028838548</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1511530471431632</v>
+        <v>0.1511408491958961</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2999466942992791</v>
+        <v>0.2999224888067062</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-0.0008802816901407606</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1496744366783076</v>
+        <v>0.1496623580538912</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07949523985074405</v>
+        <v>0.07956952395374833</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1196877381942819</v>
+        <v>0.1196780794758729</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.0009823182711197198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04997783080670955</v>
+        <v>0.0499737976300305</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.001096491228070207</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>8.070582725983044E-05</v>
+        <v>-0.0002012501419710322</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1500529028838548</v>
+        <v>0.1500831071304722</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1511408491958961</v>
+        <v>0.1511712724359358</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008305647840531893</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2999224888067062</v>
+        <v>0.2997187909805844</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008802816901407606</v>
+        <v>0.0008810572687223406</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1496623580538912</v>
+        <v>0.1496924836874853</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.0009319664492077884</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07956952395374833</v>
+        <v>0.07958554055508388</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1196780794758729</v>
+        <v>0.119819755182736</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009823182711197198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0499737976300305</v>
+        <v>0.04992905002770237</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001096491228070207</v>
+        <v>0.001097694840834329</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0002012501419710322</v>
+        <v>0.000503226629358311</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1500831071304722</v>
+        <v>0.1500076193018329</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0008764241893075564</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1511712724359358</v>
+        <v>0.1512207316720931</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008305647840531893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2997187909805844</v>
+        <v>0.2998319769648087</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008810572687223406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1496924836874853</v>
+        <v>0.1497566305355722</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009319664492077884</v>
+        <v>0.0009310986964616852</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07958554055508388</v>
+        <v>0.07946483617505072</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.119819755182736</v>
+        <v>0.1197594890187435</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.0009813542688912325</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04992905002770237</v>
+        <v>0.04995871633189877</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001097694840834329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000503226629358311</v>
+        <v>0.0004691099559872569</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1500076193018329</v>
+        <v>0.1500686908909905</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008764241893075564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1512207316720931</v>
+        <v>0.1511498257839722</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008298755186721962</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2998319769648087</v>
+        <v>0.2996913887506222</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1497566305355722</v>
+        <v>0.1498257839721254</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009310986964616852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07946483617505072</v>
+        <v>0.07950821304131409</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1197594890187435</v>
+        <v>0.119820806371329</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009813542688912325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04995871633189877</v>
+        <v>0.04993529118964659</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0004691099559872569</v>
+        <v>0.0001254355400697182</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1500686908909905</v>
+        <v>0.1500498693045969</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0008756567425569628</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1511498257839722</v>
+        <v>0.1512562884098162</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008298755186721962</v>
+        <v>0.0008291873963515162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2996913887506222</v>
+        <v>0.2996538015141953</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1498257839721254</v>
+        <v>0.1498069928510709</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07950821304131409</v>
+        <v>0.07949824113650253</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.119820806371329</v>
+        <v>0.1198057784688033</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04993529118964659</v>
+        <v>0.04992902831501474</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.001096491228070207</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0001254355400697182</v>
+        <v>0.0003115587293180955</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1500498693045969</v>
+        <v>0.1501344857747585</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008756567425569628</v>
+        <v>0.0008748906386701893</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1512562884098162</v>
+        <v>0.1513345586150005</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008291873963515162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2996538015141953</v>
+        <v>0.2995604708345481</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1498069928510709</v>
+        <v>0.1497603337117974</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.0009302325581395099</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07949824113650253</v>
+        <v>0.07947348047990972</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1198057784688033</v>
+        <v>0.1197684635584846</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.0009803921568628526</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04992902831501474</v>
+        <v>0.04996820702550105</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001096491228070207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0003115587293180955</v>
+        <v>0.0001532431321700223</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1501344857747585</v>
+        <v>0.1502428133516003</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008748906386701893</v>
+        <v>-0.0008741258741258306</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1513345586150005</v>
+        <v>0.1513113711865469</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2995604708345481</v>
+        <v>0.2995145722833609</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1497603337117974</v>
+        <v>0.149876678078546</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009302325581395099</v>
+        <v>-0.0009293680297396412</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07947348047990972</v>
+        <v>0.07946130358086267</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1197684635584846</v>
+        <v>0.1196327106048893</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009803921568628526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04996820702550105</v>
+        <v>0.04996055091419402</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0001532431321700223</v>
+        <v>-0.000270621723561848</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1502428133516003</v>
+        <v>0.1501521166456513</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0008741258741258306</v>
+        <v>-0.0008748906386700783</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1513113711865469</v>
+        <v>0.151352330415069</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.0008285004142500885</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2995145722833609</v>
+        <v>0.2995956493743662</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.149876678078546</v>
+        <v>0.1497779206445725</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0009293680297396412</v>
+        <v>-0.0009302325581393989</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07946130358086267</v>
+        <v>0.07948281335680683</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1196327106048893</v>
+        <v>0.1196650945790345</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.001962708537782021</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04996055091419402</v>
+        <v>0.04997407498449973</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-0.001095290251916903</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.000270621723561848</v>
+        <v>-0.000766305640507059</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1501521166456513</v>
+        <v>0.1501357998747076</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0008748906386700783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.151352330415069</v>
+        <v>0.1513429098721081</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008285004142500885</v>
+        <v>-0.0008291873963515162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2995956493743662</v>
+        <v>0.2998254072751284</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-0.0008802816901407606</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1497779206445725</v>
+        <v>0.1497533491824619</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0009302325581393989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07948281335680683</v>
+        <v>0.07946309500214631</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1196650945790345</v>
+        <v>0.1195218171188515</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001962708537782021</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04997407498449973</v>
+        <v>0.04995762167459621</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.001095290251916903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.000766305640507059</v>
+        <v>-0.0002718985390184336</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -569,7 +569,7 @@
         <v>0.1513429098721081</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008291873963515162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -620,7 +620,7 @@
         <v>0.07946309500214631</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -637,7 +637,7 @@
         <v>0.1195218171188515</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009832841691248539</v>
+        <v>0.001966568338249708</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0002718985390184336</v>
+        <v>5.179019790824135E-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1501357998747076</v>
+        <v>0.150128024714596</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1513429098721081</v>
+        <v>0.1513350721987685</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2998254072751284</v>
+        <v>0.2995459629141632</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0008802816901407606</v>
+        <v>0.0008810572687223406</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1497533491824619</v>
+        <v>0.1497455938285216</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07946309500214631</v>
+        <v>0.07953964882088789</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1195218171188515</v>
+        <v>0.1197506630295896</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001966568338249708</v>
+        <v>-0.0009813542688908994</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04995762167459621</v>
+        <v>0.04995503449347327</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>5.179019790824135E-05</v>
+        <v>0.0001463993235752969</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.150128024714596</v>
+        <v>0.1501060492905153</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1513350721987685</v>
+        <v>0.1513129200896191</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008291873963515162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2995459629141632</v>
+        <v>0.299765994523276</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008810572687223406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1497455938285216</v>
+        <v>0.1497236743838686</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07953964882088789</v>
+        <v>0.07952800597460791</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1197506630295896</v>
+        <v>0.1196156335573811</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009813542688908994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04995503449347327</v>
+        <v>0.04994772218073189</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0001463993235752969</v>
+        <v>0.0001254667662435871</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1501060492905153</v>
+        <v>0.1500872183325767</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0008756567425569628</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1513129200896191</v>
+        <v>0.151419388754809</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008291873963515162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.299765994523276</v>
+        <v>0.2997283885716106</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1497236743838686</v>
+        <v>0.1497048913952544</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.0009310986964616852</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07952800597460791</v>
+        <v>0.07951802910463809</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1196156335573811</v>
+        <v>0.1196006276533888</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.0009823182711199419</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04994772218073189</v>
+        <v>0.04994145618772252</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0001254667662435871</v>
+        <v>7.268194381393478E-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1500872183325767</v>
+        <v>0.1502077258277922</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008756567425569628</v>
+        <v>-0.0008748906386700783</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.151419388754809</v>
+        <v>0.1514083840991429</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008285004142503105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2997283885716106</v>
+        <v>0.2997066053129626</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1497048913952544</v>
+        <v>0.1498333912423627</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009310986964616852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07951802910463809</v>
+        <v>0.07943160877257084</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1196006276533888</v>
+        <v>0.119474458135754</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009823182711199419</v>
+        <v>0.0009832841691248539</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04994145618772252</v>
+        <v>0.04993782660941471</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.001096491228070207</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>7.268194381393478E-05</v>
+        <v>0.000246901535070343</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1502077258277922</v>
+        <v>0.1500392655696195</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0008748906386700783</v>
+        <v>0.0008756567425569628</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1514083840991429</v>
+        <v>0.1514964213091111</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008285004142503105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2997066053129626</v>
+        <v>0.2996326255577552</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1498333912423627</v>
+        <v>0.1497964062797043</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07943160877257084</v>
+        <v>0.07949262314906883</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.119474458135754</v>
+        <v>0.1195624153351707</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009832841691248539</v>
+        <v>0.0009823182711197198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04993782660941471</v>
+        <v>0.04998024279957042</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001096491228070207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000246901535070343</v>
+        <v>0.0002488312396673464</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1500392655696195</v>
+        <v>0.1501332906113457</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008756567425569628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,7 +566,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1514964213091111</v>
+        <v>0.1514587336446599</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2996326255577552</v>
+        <v>0.2995580861478267</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1497964062797043</v>
+        <v>0.1497591415268666</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07949262314906883</v>
+        <v>0.07947284782182543</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1195624153351707</v>
+        <v>0.1196500909998239</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009823182711197198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04998024279957042</v>
+        <v>0.04996780924765187</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0002488312396673464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -552,7 +552,7 @@
         <v>0.1501332906113457</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0008748906386701893</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,7 +569,7 @@
         <v>0.1514587336446599</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008278145695364003</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -603,7 +603,7 @@
         <v>0.1497591415268666</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.0009302325581395099</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -620,7 +620,7 @@
         <v>0.07947284782182543</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.001014198782961495</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -637,7 +637,7 @@
         <v>0.1196500909998239</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.0009813542688912325</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -654,7 +654,7 @@
         <v>0.04996780924765187</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.001095290251916792</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.0006487904337244554</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1501332906113457</v>
+        <v>0.1501672137701012</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008748906386701893</v>
+        <v>0.0008741258741258306</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1514587336446599</v>
+        <v>0.1514858308331651</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008278145695364003</v>
+        <v>0.001654259718775863</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2995580861478267</v>
+        <v>0.2993638617381282</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.0008802816901409827</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1497591415268666</v>
+        <v>0.1498012627299748</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009302325581395099</v>
+        <v>0.0009293680297397522</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07947284782182543</v>
+        <v>0.07950186903527151</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001014198782961495</v>
+        <v>-0.001013171225937137</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1196500909998239</v>
+        <v>0.1196898564934929</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009813542688912325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04996780924765187</v>
+        <v>0.04999010539986615</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001095290251916792</v>
+        <v>0.001094091903719896</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0006487904337244554</v>
+        <v>0.0007587517489577866</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1501672137701012</v>
+        <v>0.1501845260452998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008741258741258306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1514858308331651</v>
+        <v>0.1516213847502191</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001654259718775863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2993638617381282</v>
+        <v>0.2994002158269092</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008802816901409827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1498012627299748</v>
+        <v>0.1498268018863987</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009293680297397522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07950186903527151</v>
+        <v>0.07936110465220268</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001013171225937137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1196898564934929</v>
+        <v>0.1195991104592582</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04999010539986615</v>
+        <v>0.05000685637971226</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001094091903719896</v>
+        <v>-0.0010928961748633</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0007587517489577866</v>
+        <v>-5.465230205425886E-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -654,7 +654,7 @@
         <v>0.05000685637971226</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.0010928961748633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>-5.465230205425886E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1501845260452998</v>
+        <v>0.1502094999063272</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.002613240418118279</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1516213847502191</v>
+        <v>0.151874793696863</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.002467105263157743</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2994002158269092</v>
+        <v>0.299455508405273</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.0008771929824562541</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1498268018863987</v>
+        <v>0.14987644114822</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.001851851851851771</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07936110465220268</v>
+        <v>0.07916687730650623</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.001014198782961495</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1195991104592582</v>
+        <v>0.1194233722001009</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.05000685637971226</v>
+        <v>0.04999350733670951</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.002181025081788412</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.001496781918874479</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1502094999063272</v>
+        <v>0.1503769519399885</v>
       </c>
       <c r="E2" s="1">
-        <v>0.002613240418118279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.151874793696863</v>
+        <v>0.1520219411070123</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002467105263157743</v>
+        <v>0.0008203445447088065</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.299455508405273</v>
+        <v>0.299270246382162</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008771929824562541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.14987644114822</v>
+        <v>0.149929578231508</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001851851851851771</v>
+        <v>0.0009242144177450395</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07916687730650623</v>
+        <v>0.07912872980508559</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001014198782961495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1194233722001009</v>
+        <v>0.1192448886069159</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.0009794319294806897</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04999350733670951</v>
+        <v>0.0500276639273275</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002181025081788412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001496781918874479</v>
+        <v>0.0003800696992399821</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1503769519399885</v>
+        <v>0.150272243075234</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.0008688097306690512</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1520219411070123</v>
+        <v>0.1520407103541385</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008203445447088065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.299270246382162</v>
+        <v>0.2993239667868394</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.149929578231508</v>
+        <v>0.1499636514695191</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009242144177450395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07912872980508559</v>
+        <v>0.07907363173745974</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1192448886069159</v>
+        <v>0.1192785682140755</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0009794319294806897</v>
+        <v>-0.0009784735812131684</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0500276639273275</v>
+        <v>0.0500472283627336</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0003800696992399821</v>
+        <v>1.384705923079821E-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.150272243075234</v>
+        <v>0.1502170939154226</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0008688097306690512</v>
+        <v>0.001742160278745519</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1520407103541385</v>
+        <v>0.1520073752453459</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.001643385373869988</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2993239667868394</v>
+        <v>0.2994706477130791</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.0008771929824562541</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1499636514695191</v>
+        <v>0.1500227998176014</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.0009250693802034249</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07907363173745974</v>
+        <v>0.07909058466662701</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1192785682140755</v>
+        <v>0.1191954638275937</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009784735812131684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0500472283627336</v>
+        <v>0.04999603481433017</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.001090512540894206</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>1.384705923079821E-05</v>
+        <v>0.001047800313249692</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1502170939154226</v>
+        <v>0.1503212894754302</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001742160278745519</v>
+        <v>0.001739130434782465</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1520073752453459</v>
+        <v>0.1520978138055943</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001643385373869988</v>
+        <v>0.001640689089417613</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2994706477130791</v>
+        <v>0.2994196093032836</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008771929824562541</v>
+        <v>0.0008764241893075564</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1500227998176014</v>
+        <v>0.1500044066517666</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009250693802034249</v>
+        <v>0.001848428835489857</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07909058466662701</v>
+        <v>0.07908801123349608</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001015228426395787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1191954638275937</v>
+        <v>0.1190707015092534</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04999603481433017</v>
+        <v>0.04999816802117569</v>
       </c>
       <c r="E8" s="1">
-        <v>0.001090512540894206</v>
+        <v>0.002178649237472685</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001047800313249692</v>
+        <v>0.001159593082844079</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1503212894754302</v>
+        <v>0.1504083053744382</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001739130434782465</v>
+        <v>0.00173611111111116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1520978138055943</v>
+        <v>0.1521709027030449</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001640689089417613</v>
+        <v>0.002457002457002533</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2994196093032836</v>
+        <v>0.2993349211875673</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008764241893075564</v>
+        <v>0.0008756567425567408</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1500044066517666</v>
+        <v>0.150107615370007</v>
       </c>
       <c r="E5" s="1">
-        <v>0.001848428835489857</v>
+        <v>0.000922509225092405</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07908801123349608</v>
+        <v>0.07899640754573653</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1190707015092534</v>
+        <v>0.1189327878711147</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.04999816802117569</v>
+        <v>0.0500490599480914</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002178649237472685</v>
+        <v>0.002173913043478359</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -665,7 +665,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001159593082844079</v>
+        <v>0.00114440241818059</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,10 +549,10 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1504083053744382</v>
+        <v>0.1504972015432267</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00173611111111116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1521709027030449</v>
+        <v>0.1523704139147274</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002457002457002533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2993349211875673</v>
+        <v>0.2992545681781132</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0008756567425567408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.150107615370007</v>
+        <v>0.150074345585947</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000922509225092405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07899640754573653</v>
+        <v>0.07890610720584094</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1189327878711147</v>
+        <v>0.1187968364841701</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0500490599480914</v>
+        <v>0.05010052708797479</v>
       </c>
       <c r="E8" s="1">
-        <v>0.002173913043478359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.00114440241818059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.1504972015432267</v>
+        <v>0.150476388045105</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1523704139147274</v>
+        <v>0.1523493413546313</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.0008169934640522847</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2992545681781132</v>
+        <v>0.2992131817979759</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.150074345585947</v>
+        <v>0.1501918888082149</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07890610720584094</v>
+        <v>0.07889519463007691</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1187968364841701</v>
+        <v>0.1187804070907483</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-0.0009813542688908994</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.05010052708797479</v>
+        <v>0.05009359827324769</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>-7.211265379503118E-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/NAT_holdings.xlsx
+++ b/NAT_holdings.xlsx
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>0.150476388045105</v>
+        <v>0.1504872400793494</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1523493413546313</v>
+        <v>0.1524848058547843</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0008169934640522847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2992131817979759</v>
+        <v>0.2992347604106568</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1501918888082149</v>
+        <v>0.1502027203249848</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -617,10 +617,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.07889519463007691</v>
+        <v>0.07882086320132144</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.001014198782961384</v>
+        <v>0.001015228426395787</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1187804070907483</v>
+        <v>0.1186723992128287</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0009813542688908994</v>
+        <v>0.0009823182711197198</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>0.05009359827324769</v>
+        <v>0.05009721091607458</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>-7.211265379503118E-05</v>
+        <v>0.0001965952469393795</v>
       </c>
     </row>
     <row r="12" spans="1:5">
